--- a/Excel_Data/village.xlsx
+++ b/Excel_Data/village.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -463,87 +466,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
